--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T11:55:14+00:00</t>
+    <t>2024-06-26T11:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1839,7 +1839,7 @@
 </t>
   </si>
   <si>
-    <t>Kind of document</t>
+    <t>Kind of document (LOINC if possible)</t>
   </si>
   <si>
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28887" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28888" uniqueCount="786">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Bundle de Creation de note</t>
+    <t>Bundle de création d'une note</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T11:56:25+00:00</t>
+    <t>2024-06-26T14:25:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil du bundle représentant le flux 1 de création de note du volet CdL</t>
+    <t>Profil du bundle pour le flux 1 de création de note du volet CdL</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1615,7 +1615,7 @@
     <t>Bundle de mise à jour d'une note</t>
   </si>
   <si>
-    <t>Profil du bundle représentant le flux 2 de mise à jour d'une note du volet CdL</t>
+    <t>Profil du bundle pour le flux 2 de mise à jour d'une note du volet CdL</t>
   </si>
   <si>
     <t>PUT</t>
@@ -1656,6 +1656,9 @@
   </si>
   <si>
     <t>CdL_DocumentReferenceCdL</t>
+  </si>
+  <si>
+    <t>DocumentReference Cahier de Liaison</t>
   </si>
   <si>
     <t>Profil de la ressource DocumentReference pour le cahier de liaison. Il regroupe les informations relatives à la note.</t>
@@ -3095,7 +3098,9 @@
       <c r="A66" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" t="s" s="2">
+        <v>531</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
@@ -3140,7 +3145,7 @@
         <v>21</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73">
@@ -3184,7 +3189,7 @@
         <v>31</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="79">
@@ -3216,7 +3221,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83">
@@ -3224,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84">
@@ -3240,7 +3245,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="86">
@@ -3318,7 +3323,7 @@
         <v>27</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="97">
@@ -3326,7 +3331,7 @@
         <v>29</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98">
@@ -3334,7 +3339,7 @@
         <v>31</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="99">
@@ -3355,10 +3360,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -88709,7 +88714,7 @@
         <v>73</v>
       </c>
       <c r="AK818" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="819">
@@ -88717,10 +88722,10 @@
         <v>528</v>
       </c>
       <c r="B819" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C819" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D819" s="2"/>
       <c r="E819" t="s" s="2">
@@ -88822,10 +88827,10 @@
         <v>528</v>
       </c>
       <c r="B820" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C820" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D820" s="2"/>
       <c r="E820" t="s" s="2">
@@ -88925,10 +88930,10 @@
         <v>528</v>
       </c>
       <c r="B821" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C821" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D821" s="2"/>
       <c r="E821" t="s" s="2">
@@ -89030,10 +89035,10 @@
         <v>528</v>
       </c>
       <c r="B822" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C822" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D822" s="2"/>
       <c r="E822" t="s" s="2">
@@ -89135,14 +89140,14 @@
         <v>528</v>
       </c>
       <c r="B823" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C823" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D823" s="2"/>
       <c r="E823" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F823" s="2"/>
       <c r="G823" t="s" s="2">
@@ -89161,16 +89166,16 @@
         <v>73</v>
       </c>
       <c r="L823" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M823" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N823" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O823" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P823" s="2"/>
       <c r="Q823" t="s" s="2">
@@ -89220,7 +89225,7 @@
         <v>73</v>
       </c>
       <c r="AG823" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AH823" t="s" s="2">
         <v>74</v>
@@ -89240,14 +89245,14 @@
         <v>528</v>
       </c>
       <c r="B824" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C824" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D824" s="2"/>
       <c r="E824" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F824" s="2"/>
       <c r="G824" t="s" s="2">
@@ -89269,13 +89274,13 @@
         <v>180</v>
       </c>
       <c r="M824" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N824" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O824" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P824" s="2"/>
       <c r="Q824" t="s" s="2">
@@ -89325,7 +89330,7 @@
         <v>73</v>
       </c>
       <c r="AG824" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AH824" t="s" s="2">
         <v>74</v>
@@ -89345,10 +89350,10 @@
         <v>528</v>
       </c>
       <c r="B825" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C825" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D825" s="2"/>
       <c r="E825" t="s" s="2">
@@ -89374,10 +89379,10 @@
         <v>145</v>
       </c>
       <c r="M825" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N825" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O825" s="2"/>
       <c r="P825" s="2"/>
@@ -89416,7 +89421,7 @@
         <v>73</v>
       </c>
       <c r="AC825" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AD825" s="2"/>
       <c r="AE825" t="s" s="2">
@@ -89426,7 +89431,7 @@
         <v>167</v>
       </c>
       <c r="AG825" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AH825" t="s" s="2">
         <v>74</v>
@@ -89446,13 +89451,13 @@
         <v>528</v>
       </c>
       <c r="B826" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C826" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D826" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E826" t="s" s="2">
         <v>73</v>
@@ -89474,13 +89479,13 @@
         <v>73</v>
       </c>
       <c r="L826" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M826" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N826" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O826" s="2"/>
       <c r="P826" s="2"/>
@@ -89531,7 +89536,7 @@
         <v>73</v>
       </c>
       <c r="AG826" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AH826" t="s" s="2">
         <v>74</v>
@@ -89540,7 +89545,7 @@
         <v>75</v>
       </c>
       <c r="AJ826" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AK826" t="s" s="2">
         <v>150</v>
@@ -89551,10 +89556,10 @@
         <v>528</v>
       </c>
       <c r="B827" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C827" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D827" s="2"/>
       <c r="E827" t="s" s="2">
@@ -89580,10 +89585,10 @@
         <v>145</v>
       </c>
       <c r="M827" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N827" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O827" t="s" s="2">
         <v>148</v>
@@ -89638,7 +89643,7 @@
         <v>73</v>
       </c>
       <c r="AG827" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AH827" t="s" s="2">
         <v>74</v>
@@ -89658,10 +89663,10 @@
         <v>528</v>
       </c>
       <c r="B828" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C828" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D828" s="2"/>
       <c r="E828" t="s" s="2">
@@ -89687,16 +89692,16 @@
         <v>110</v>
       </c>
       <c r="M828" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N828" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O828" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P828" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q828" t="s" s="2">
         <v>73</v>
@@ -89745,7 +89750,7 @@
         <v>73</v>
       </c>
       <c r="AG828" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AH828" t="s" s="2">
         <v>74</v>
@@ -89765,10 +89770,10 @@
         <v>528</v>
       </c>
       <c r="B829" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C829" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D829" s="2"/>
       <c r="E829" t="s" s="2">
@@ -89794,10 +89799,10 @@
         <v>110</v>
       </c>
       <c r="M829" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N829" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O829" s="2"/>
       <c r="P829" s="2"/>
@@ -89848,7 +89853,7 @@
         <v>73</v>
       </c>
       <c r="AG829" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AH829" t="s" s="2">
         <v>74</v>
@@ -89868,10 +89873,10 @@
         <v>528</v>
       </c>
       <c r="B830" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C830" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D830" s="2"/>
       <c r="E830" t="s" s="2">
@@ -89897,13 +89902,13 @@
         <v>101</v>
       </c>
       <c r="M830" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N830" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O830" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P830" s="2"/>
       <c r="Q830" t="s" s="2">
@@ -89932,10 +89937,10 @@
         <v>119</v>
       </c>
       <c r="Z830" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AA830" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AB830" t="s" s="2">
         <v>73</v>
@@ -89953,7 +89958,7 @@
         <v>73</v>
       </c>
       <c r="AG830" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AH830" t="s" s="2">
         <v>81</v>
@@ -89973,10 +89978,10 @@
         <v>528</v>
       </c>
       <c r="B831" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C831" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D831" s="2"/>
       <c r="E831" t="s" s="2">
@@ -90002,13 +90007,13 @@
         <v>101</v>
       </c>
       <c r="M831" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N831" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O831" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P831" s="2"/>
       <c r="Q831" t="s" s="2">
@@ -90037,10 +90042,10 @@
         <v>119</v>
       </c>
       <c r="Z831" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AA831" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AB831" t="s" s="2">
         <v>73</v>
@@ -90058,7 +90063,7 @@
         <v>73</v>
       </c>
       <c r="AG831" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AH831" t="s" s="2">
         <v>74</v>
@@ -90078,10 +90083,10 @@
         <v>528</v>
       </c>
       <c r="B832" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C832" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D832" s="2"/>
       <c r="E832" t="s" s="2">
@@ -90104,16 +90109,16 @@
         <v>82</v>
       </c>
       <c r="L832" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M832" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N832" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O832" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P832" s="2"/>
       <c r="Q832" t="s" s="2">
@@ -90143,7 +90148,7 @@
       </c>
       <c r="Z832" s="2"/>
       <c r="AA832" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AB832" t="s" s="2">
         <v>73</v>
@@ -90161,7 +90166,7 @@
         <v>73</v>
       </c>
       <c r="AG832" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AH832" t="s" s="2">
         <v>74</v>
@@ -90181,14 +90186,14 @@
         <v>528</v>
       </c>
       <c r="B833" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C833" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D833" s="2"/>
       <c r="E833" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F833" s="2"/>
       <c r="G833" t="s" s="2">
@@ -90207,16 +90212,16 @@
         <v>82</v>
       </c>
       <c r="L833" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M833" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N833" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O833" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P833" s="2"/>
       <c r="Q833" t="s" s="2">
@@ -90242,13 +90247,13 @@
         <v>73</v>
       </c>
       <c r="Y833" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z833" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AA833" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AB833" t="s" s="2">
         <v>73</v>
@@ -90266,7 +90271,7 @@
         <v>73</v>
       </c>
       <c r="AG833" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AH833" t="s" s="2">
         <v>74</v>
@@ -90286,10 +90291,10 @@
         <v>528</v>
       </c>
       <c r="B834" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C834" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D834" s="2"/>
       <c r="E834" t="s" s="2">
@@ -90312,13 +90317,13 @@
         <v>82</v>
       </c>
       <c r="L834" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M834" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N834" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O834" s="2"/>
       <c r="P834" s="2"/>
@@ -90369,7 +90374,7 @@
         <v>73</v>
       </c>
       <c r="AG834" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AH834" t="s" s="2">
         <v>74</v>
@@ -90389,14 +90394,14 @@
         <v>528</v>
       </c>
       <c r="B835" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C835" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D835" s="2"/>
       <c r="E835" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F835" s="2"/>
       <c r="G835" t="s" s="2">
@@ -90418,13 +90423,13 @@
         <v>123</v>
       </c>
       <c r="M835" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N835" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O835" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P835" s="2"/>
       <c r="Q835" t="s" s="2">
@@ -90474,7 +90479,7 @@
         <v>73</v>
       </c>
       <c r="AG835" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AH835" t="s" s="2">
         <v>74</v>
@@ -90494,10 +90499,10 @@
         <v>528</v>
       </c>
       <c r="B836" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C836" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D836" s="2"/>
       <c r="E836" t="s" s="2">
@@ -90520,16 +90525,16 @@
         <v>82</v>
       </c>
       <c r="L836" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M836" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N836" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O836" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P836" s="2"/>
       <c r="Q836" t="s" s="2">
@@ -90579,7 +90584,7 @@
         <v>73</v>
       </c>
       <c r="AG836" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AH836" t="s" s="2">
         <v>74</v>
@@ -90599,10 +90604,10 @@
         <v>528</v>
       </c>
       <c r="B837" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C837" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D837" s="2"/>
       <c r="E837" t="s" s="2">
@@ -90625,16 +90630,16 @@
         <v>73</v>
       </c>
       <c r="L837" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M837" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N837" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O837" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P837" s="2"/>
       <c r="Q837" t="s" s="2">
@@ -90684,7 +90689,7 @@
         <v>73</v>
       </c>
       <c r="AG837" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH837" t="s" s="2">
         <v>74</v>
@@ -90704,10 +90709,10 @@
         <v>528</v>
       </c>
       <c r="B838" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C838" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D838" s="2"/>
       <c r="E838" t="s" s="2">
@@ -90730,16 +90735,16 @@
         <v>73</v>
       </c>
       <c r="L838" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M838" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N838" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O838" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="P838" s="2"/>
       <c r="Q838" t="s" s="2">
@@ -90789,7 +90794,7 @@
         <v>73</v>
       </c>
       <c r="AG838" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AH838" t="s" s="2">
         <v>74</v>
@@ -90809,10 +90814,10 @@
         <v>528</v>
       </c>
       <c r="B839" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C839" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D839" s="2"/>
       <c r="E839" t="s" s="2">
@@ -90838,13 +90843,13 @@
         <v>134</v>
       </c>
       <c r="M839" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N839" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O839" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P839" s="2"/>
       <c r="Q839" t="s" s="2">
@@ -90894,7 +90899,7 @@
         <v>73</v>
       </c>
       <c r="AG839" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AH839" t="s" s="2">
         <v>74</v>
@@ -90914,10 +90919,10 @@
         <v>528</v>
       </c>
       <c r="B840" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C840" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D840" s="2"/>
       <c r="E840" t="s" s="2">
@@ -91017,10 +91022,10 @@
         <v>528</v>
       </c>
       <c r="B841" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C841" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D841" s="2"/>
       <c r="E841" t="s" s="2">
@@ -91122,10 +91127,10 @@
         <v>528</v>
       </c>
       <c r="B842" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C842" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D842" s="2"/>
       <c r="E842" t="s" s="2">
@@ -91229,10 +91234,10 @@
         <v>528</v>
       </c>
       <c r="B843" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C843" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D843" s="2"/>
       <c r="E843" t="s" s="2">
@@ -91258,13 +91263,13 @@
         <v>101</v>
       </c>
       <c r="M843" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N843" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O843" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P843" s="2"/>
       <c r="Q843" t="s" s="2">
@@ -91293,10 +91298,10 @@
         <v>119</v>
       </c>
       <c r="Z843" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AA843" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AB843" t="s" s="2">
         <v>73</v>
@@ -91314,7 +91319,7 @@
         <v>73</v>
       </c>
       <c r="AG843" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AH843" t="s" s="2">
         <v>81</v>
@@ -91334,10 +91339,10 @@
         <v>528</v>
       </c>
       <c r="B844" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C844" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D844" s="2"/>
       <c r="E844" t="s" s="2">
@@ -91360,13 +91365,13 @@
         <v>82</v>
       </c>
       <c r="L844" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M844" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N844" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O844" s="2"/>
       <c r="P844" s="2"/>
@@ -91417,7 +91422,7 @@
         <v>73</v>
       </c>
       <c r="AG844" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AH844" t="s" s="2">
         <v>81</v>
@@ -91437,10 +91442,10 @@
         <v>528</v>
       </c>
       <c r="B845" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C845" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D845" s="2"/>
       <c r="E845" t="s" s="2">
@@ -91466,16 +91471,16 @@
         <v>139</v>
       </c>
       <c r="M845" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N845" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O845" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P845" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q845" t="s" s="2">
         <v>73</v>
@@ -91524,7 +91529,7 @@
         <v>73</v>
       </c>
       <c r="AG845" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AH845" t="s" s="2">
         <v>74</v>
@@ -91544,10 +91549,10 @@
         <v>528</v>
       </c>
       <c r="B846" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C846" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D846" s="2"/>
       <c r="E846" t="s" s="2">
@@ -91570,19 +91575,19 @@
         <v>82</v>
       </c>
       <c r="L846" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M846" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N846" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O846" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P846" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q846" t="s" s="2">
         <v>73</v>
@@ -91611,7 +91616,7 @@
       </c>
       <c r="Z846" s="2"/>
       <c r="AA846" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AB846" t="s" s="2">
         <v>73</v>
@@ -91629,7 +91634,7 @@
         <v>73</v>
       </c>
       <c r="AG846" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AH846" t="s" s="2">
         <v>74</v>
@@ -91649,10 +91654,10 @@
         <v>528</v>
       </c>
       <c r="B847" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C847" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D847" s="2"/>
       <c r="E847" t="s" s="2">
@@ -91678,10 +91683,10 @@
         <v>134</v>
       </c>
       <c r="M847" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N847" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O847" s="2"/>
       <c r="P847" s="2"/>
@@ -91732,7 +91737,7 @@
         <v>73</v>
       </c>
       <c r="AG847" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AH847" t="s" s="2">
         <v>81</v>
@@ -91752,10 +91757,10 @@
         <v>528</v>
       </c>
       <c r="B848" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C848" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D848" s="2"/>
       <c r="E848" t="s" s="2">
@@ -91855,10 +91860,10 @@
         <v>528</v>
       </c>
       <c r="B849" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C849" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D849" s="2"/>
       <c r="E849" t="s" s="2">
@@ -91960,10 +91965,10 @@
         <v>528</v>
       </c>
       <c r="B850" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C850" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D850" s="2"/>
       <c r="E850" t="s" s="2">
@@ -92067,10 +92072,10 @@
         <v>528</v>
       </c>
       <c r="B851" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C851" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D851" s="2"/>
       <c r="E851" t="s" s="2">
@@ -92093,13 +92098,13 @@
         <v>82</v>
       </c>
       <c r="L851" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M851" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N851" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O851" s="2"/>
       <c r="P851" s="2"/>
@@ -92150,7 +92155,7 @@
         <v>73</v>
       </c>
       <c r="AG851" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AH851" t="s" s="2">
         <v>81</v>
@@ -92170,10 +92175,10 @@
         <v>528</v>
       </c>
       <c r="B852" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C852" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D852" s="2"/>
       <c r="E852" t="s" s="2">
@@ -92273,10 +92278,10 @@
         <v>528</v>
       </c>
       <c r="B853" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C853" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D853" s="2"/>
       <c r="E853" t="s" s="2">
@@ -92346,10 +92351,10 @@
         <v>73</v>
       </c>
       <c r="AC853" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AD853" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AE853" t="s" s="2">
         <v>73</v>
@@ -92378,10 +92383,10 @@
         <v>528</v>
       </c>
       <c r="B854" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C854" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D854" s="2"/>
       <c r="E854" t="s" s="2">
@@ -92407,14 +92412,14 @@
         <v>101</v>
       </c>
       <c r="M854" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="N854" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O854" s="2"/>
       <c r="P854" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Q854" t="s" s="2">
         <v>73</v>
@@ -92427,7 +92432,7 @@
         <v>73</v>
       </c>
       <c r="U854" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="V854" t="s" s="2">
         <v>73</v>
@@ -92442,10 +92447,10 @@
         <v>119</v>
       </c>
       <c r="Z854" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AA854" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AB854" t="s" s="2">
         <v>73</v>
@@ -92463,7 +92468,7 @@
         <v>73</v>
       </c>
       <c r="AG854" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AH854" t="s" s="2">
         <v>74</v>
@@ -92483,10 +92488,10 @@
         <v>528</v>
       </c>
       <c r="B855" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C855" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D855" s="2"/>
       <c r="E855" t="s" s="2">
@@ -92512,14 +92517,14 @@
         <v>101</v>
       </c>
       <c r="M855" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N855" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O855" s="2"/>
       <c r="P855" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q855" t="s" s="2">
         <v>73</v>
@@ -92532,7 +92537,7 @@
         <v>73</v>
       </c>
       <c r="U855" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="V855" t="s" s="2">
         <v>73</v>
@@ -92568,7 +92573,7 @@
         <v>73</v>
       </c>
       <c r="AG855" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AH855" t="s" s="2">
         <v>74</v>
@@ -92588,10 +92593,10 @@
         <v>528</v>
       </c>
       <c r="B856" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C856" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D856" s="2"/>
       <c r="E856" t="s" s="2">
@@ -92614,19 +92619,19 @@
         <v>73</v>
       </c>
       <c r="L856" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M856" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N856" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O856" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P856" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q856" t="s" s="2">
         <v>73</v>
@@ -92675,7 +92680,7 @@
         <v>73</v>
       </c>
       <c r="AG856" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AH856" t="s" s="2">
         <v>74</v>
@@ -92695,10 +92700,10 @@
         <v>528</v>
       </c>
       <c r="B857" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C857" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" t="s" s="2">
@@ -92721,19 +92726,19 @@
         <v>82</v>
       </c>
       <c r="L857" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M857" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N857" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O857" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P857" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Q857" t="s" s="2">
         <v>73</v>
@@ -92746,7 +92751,7 @@
         <v>73</v>
       </c>
       <c r="U857" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="V857" t="s" s="2">
         <v>73</v>
@@ -92782,7 +92787,7 @@
         <v>73</v>
       </c>
       <c r="AG857" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AH857" t="s" s="2">
         <v>74</v>
@@ -92802,10 +92807,10 @@
         <v>528</v>
       </c>
       <c r="B858" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C858" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D858" s="2"/>
       <c r="E858" t="s" s="2">
@@ -92831,16 +92836,16 @@
         <v>128</v>
       </c>
       <c r="M858" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N858" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O858" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P858" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q858" t="s" s="2">
         <v>73</v>
@@ -92889,7 +92894,7 @@
         <v>73</v>
       </c>
       <c r="AG858" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AH858" t="s" s="2">
         <v>74</v>
@@ -92909,10 +92914,10 @@
         <v>528</v>
       </c>
       <c r="B859" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C859" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D859" s="2"/>
       <c r="E859" t="s" s="2">
@@ -92935,19 +92940,19 @@
         <v>82</v>
       </c>
       <c r="L859" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M859" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N859" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O859" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P859" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Q859" t="s" s="2">
         <v>73</v>
@@ -92996,7 +93001,7 @@
         <v>73</v>
       </c>
       <c r="AG859" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AH859" t="s" s="2">
         <v>74</v>
@@ -93016,10 +93021,10 @@
         <v>528</v>
       </c>
       <c r="B860" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C860" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D860" s="2"/>
       <c r="E860" t="s" s="2">
@@ -93045,14 +93050,14 @@
         <v>139</v>
       </c>
       <c r="M860" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N860" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O860" s="2"/>
       <c r="P860" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Q860" t="s" s="2">
         <v>73</v>
@@ -93065,7 +93070,7 @@
         <v>73</v>
       </c>
       <c r="U860" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="V860" t="s" s="2">
         <v>73</v>
@@ -93101,7 +93106,7 @@
         <v>73</v>
       </c>
       <c r="AG860" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AH860" t="s" s="2">
         <v>74</v>
@@ -93121,10 +93126,10 @@
         <v>528</v>
       </c>
       <c r="B861" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C861" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D861" s="2"/>
       <c r="E861" t="s" s="2">
@@ -93147,17 +93152,17 @@
         <v>82</v>
       </c>
       <c r="L861" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M861" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N861" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O861" s="2"/>
       <c r="P861" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Q861" t="s" s="2">
         <v>73</v>
@@ -93206,7 +93211,7 @@
         <v>73</v>
       </c>
       <c r="AG861" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AH861" t="s" s="2">
         <v>74</v>
@@ -93226,10 +93231,10 @@
         <v>528</v>
       </c>
       <c r="B862" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C862" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D862" s="2"/>
       <c r="E862" t="s" s="2">
@@ -93252,16 +93257,16 @@
         <v>82</v>
       </c>
       <c r="L862" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M862" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N862" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O862" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P862" s="2"/>
       <c r="Q862" t="s" s="2">
@@ -93290,10 +93295,10 @@
         <v>105</v>
       </c>
       <c r="Z862" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AA862" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AB862" t="s" s="2">
         <v>73</v>
@@ -93311,7 +93316,7 @@
         <v>73</v>
       </c>
       <c r="AG862" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AH862" t="s" s="2">
         <v>74</v>
@@ -93331,10 +93336,10 @@
         <v>528</v>
       </c>
       <c r="B863" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C863" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D863" s="2"/>
       <c r="E863" t="s" s="2">
@@ -93360,13 +93365,13 @@
         <v>134</v>
       </c>
       <c r="M863" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N863" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O863" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P863" s="2"/>
       <c r="Q863" t="s" s="2">
@@ -93416,7 +93421,7 @@
         <v>73</v>
       </c>
       <c r="AG863" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AH863" t="s" s="2">
         <v>74</v>
@@ -93436,10 +93441,10 @@
         <v>528</v>
       </c>
       <c r="B864" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C864" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D864" s="2"/>
       <c r="E864" t="s" s="2">
@@ -93539,10 +93544,10 @@
         <v>528</v>
       </c>
       <c r="B865" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C865" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D865" s="2"/>
       <c r="E865" t="s" s="2">
@@ -93644,10 +93649,10 @@
         <v>528</v>
       </c>
       <c r="B866" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C866" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" t="s" s="2">
@@ -93751,10 +93756,10 @@
         <v>528</v>
       </c>
       <c r="B867" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C867" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D867" s="2"/>
       <c r="E867" t="s" s="2">
@@ -93777,13 +93782,13 @@
         <v>73</v>
       </c>
       <c r="L867" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M867" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N867" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O867" s="2"/>
       <c r="P867" s="2"/>
@@ -93834,7 +93839,7 @@
         <v>73</v>
       </c>
       <c r="AG867" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AH867" t="s" s="2">
         <v>74</v>
@@ -93854,10 +93859,10 @@
         <v>528</v>
       </c>
       <c r="B868" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C868" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" t="s" s="2">
@@ -93880,16 +93885,16 @@
         <v>73</v>
       </c>
       <c r="L868" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M868" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N868" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O868" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P868" s="2"/>
       <c r="Q868" t="s" s="2">
@@ -93915,13 +93920,13 @@
         <v>73</v>
       </c>
       <c r="Y868" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z868" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AA868" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AB868" t="s" s="2">
         <v>73</v>
@@ -93939,7 +93944,7 @@
         <v>73</v>
       </c>
       <c r="AG868" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AH868" t="s" s="2">
         <v>74</v>
@@ -93959,10 +93964,10 @@
         <v>528</v>
       </c>
       <c r="B869" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C869" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" t="s" s="2">
@@ -93985,13 +93990,13 @@
         <v>82</v>
       </c>
       <c r="L869" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M869" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N869" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O869" s="2"/>
       <c r="P869" s="2"/>
@@ -94042,7 +94047,7 @@
         <v>73</v>
       </c>
       <c r="AG869" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AH869" t="s" s="2">
         <v>74</v>
@@ -94062,10 +94067,10 @@
         <v>528</v>
       </c>
       <c r="B870" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C870" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D870" s="2"/>
       <c r="E870" t="s" s="2">
@@ -94088,13 +94093,13 @@
         <v>73</v>
       </c>
       <c r="L870" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M870" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="N870" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="O870" s="2"/>
       <c r="P870" s="2"/>
@@ -94121,13 +94126,13 @@
         <v>73</v>
       </c>
       <c r="Y870" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z870" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AA870" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AB870" t="s" s="2">
         <v>73</v>
@@ -94145,7 +94150,7 @@
         <v>73</v>
       </c>
       <c r="AG870" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AH870" t="s" s="2">
         <v>74</v>
@@ -94165,10 +94170,10 @@
         <v>528</v>
       </c>
       <c r="B871" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C871" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D871" s="2"/>
       <c r="E871" t="s" s="2">
@@ -94191,19 +94196,19 @@
         <v>73</v>
       </c>
       <c r="L871" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M871" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N871" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="O871" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P871" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Q871" t="s" s="2">
         <v>73</v>
@@ -94228,13 +94233,13 @@
         <v>73</v>
       </c>
       <c r="Y871" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z871" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AA871" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AB871" t="s" s="2">
         <v>73</v>
@@ -94252,7 +94257,7 @@
         <v>73</v>
       </c>
       <c r="AG871" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AH871" t="s" s="2">
         <v>74</v>
@@ -94272,10 +94277,10 @@
         <v>528</v>
       </c>
       <c r="B872" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C872" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D872" s="2"/>
       <c r="E872" t="s" s="2">
@@ -94298,13 +94303,13 @@
         <v>73</v>
       </c>
       <c r="L872" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M872" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N872" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="O872" s="2"/>
       <c r="P872" s="2"/>
@@ -94355,7 +94360,7 @@
         <v>73</v>
       </c>
       <c r="AG872" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AH872" t="s" s="2">
         <v>74</v>
@@ -94375,10 +94380,10 @@
         <v>528</v>
       </c>
       <c r="B873" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C873" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D873" s="2"/>
       <c r="E873" t="s" s="2">
@@ -94401,16 +94406,16 @@
         <v>73</v>
       </c>
       <c r="L873" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M873" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N873" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="O873" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P873" s="2"/>
       <c r="Q873" t="s" s="2">
@@ -94460,7 +94465,7 @@
         <v>73</v>
       </c>
       <c r="AG873" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AH873" t="s" s="2">
         <v>74</v>
@@ -94477,13 +94482,13 @@
     </row>
     <row r="874">
       <c r="A874" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B874" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C874" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" t="s" s="2">
@@ -94509,10 +94514,10 @@
         <v>76</v>
       </c>
       <c r="M874" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N874" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O874" s="2"/>
       <c r="P874" s="2"/>
@@ -94563,7 +94568,7 @@
         <v>73</v>
       </c>
       <c r="AG874" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AH874" t="s" s="2">
         <v>74</v>
@@ -94572,7 +94577,7 @@
         <v>75</v>
       </c>
       <c r="AJ874" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AK874" t="s" s="2">
         <v>150</v>
@@ -94580,13 +94585,13 @@
     </row>
     <row r="875">
       <c r="A875" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B875" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C875" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D875" s="2"/>
       <c r="E875" t="s" s="2">
@@ -94683,13 +94688,13 @@
     </row>
     <row r="876">
       <c r="A876" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B876" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C876" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" t="s" s="2">
@@ -94715,10 +94720,10 @@
         <v>145</v>
       </c>
       <c r="M876" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N876" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O876" s="2"/>
       <c r="P876" s="2"/>
@@ -94757,10 +94762,10 @@
         <v>73</v>
       </c>
       <c r="AC876" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AD876" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AE876" t="s" s="2">
         <v>73</v>
@@ -94786,13 +94791,13 @@
     </row>
     <row r="877">
       <c r="A877" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B877" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C877" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" t="s" s="2">
@@ -94818,13 +94823,13 @@
         <v>95</v>
       </c>
       <c r="M877" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N877" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O877" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="P877" s="2"/>
       <c r="Q877" t="s" s="2">
@@ -94832,7 +94837,7 @@
       </c>
       <c r="R877" s="2"/>
       <c r="S877" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T877" t="s" s="2">
         <v>73</v>
@@ -94874,7 +94879,7 @@
         <v>73</v>
       </c>
       <c r="AG877" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AH877" t="s" s="2">
         <v>81</v>
@@ -94891,13 +94896,13 @@
     </row>
     <row r="878">
       <c r="A878" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B878" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C878" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" t="s" s="2">
@@ -94920,13 +94925,13 @@
         <v>73</v>
       </c>
       <c r="L878" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M878" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N878" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O878" s="2"/>
       <c r="P878" s="2"/>
@@ -94977,7 +94982,7 @@
         <v>73</v>
       </c>
       <c r="AG878" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AH878" t="s" s="2">
         <v>74</v>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:12:34+00:00</t>
+    <t>2024-06-27T12:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:22:16+00:00</t>
+    <t>2024-06-27T12:38:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -42,7 +42,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CdL_BundleCreationNoteCdL</t>
+    <t>CdLBundleCreationNote</t>
   </si>
   <si>
     <t>Title</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:38:59+00:00</t>
+    <t>2024-07-03T12:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1612,7 +1612,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/cdl/StructureDefinition/cdl-bundle-maj-note</t>
   </si>
   <si>
-    <t>CdL_BundleMAJNoteCdL</t>
+    <t>CdLBundleMAJNote</t>
   </si>
   <si>
     <t>Bundle de mise à jour d'une note</t>
@@ -1630,7 +1630,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/cdl/StructureDefinition/cdl-bundle-resultat-recherche-notes</t>
   </si>
   <si>
-    <t>CdL_BundleResultatRechercheNotesCdL</t>
+    <t>CdLBundleResultatRechercheNotes</t>
   </si>
   <si>
     <t>Bundle résultat recherche notes</t>
@@ -1658,7 +1658,7 @@
     <t>https://interop.esante.gouv.fr/ig/fhir/cdl/StructureDefinition/cdl-document-reference</t>
   </si>
   <si>
-    <t>CdL_DocumentReferenceCdL</t>
+    <t>CdLDocumentReference</t>
   </si>
   <si>
     <t>DocumentReference Cahier de Liaison</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T12:11:05+00:00</t>
+    <t>2024-07-17T09:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:53:58+00:00</t>
+    <t>2024-07-17T12:07:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -543,7 +543,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource}
+    <t xml:space="preserve">type:resource}
 </t>
   </si>
   <si>
@@ -1621,6 +1621,10 @@
     <t>Profil du bundle pour le flux 2 de mise à jour d'une note du volet CdL</t>
   </si>
   <si>
+    <t xml:space="preserve">profile:resource}
+</t>
+  </si>
+  <si>
     <t>PUT</t>
   </si>
   <si>
@@ -1640,10 +1644,6 @@
   </si>
   <si>
     <t>searchset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:resource}
-</t>
   </si>
   <si>
     <t>match</t>
@@ -2932,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45">
@@ -2940,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46">
@@ -2956,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48">
@@ -2964,7 +2964,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49">
@@ -3018,7 +3018,7 @@
         <v>23</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56">
@@ -33578,7 +33578,7 @@
         <v>22</v>
       </c>
       <c r="AC289" t="s" s="2">
-        <v>167</v>
+        <v>519</v>
       </c>
       <c r="AD289" s="2"/>
       <c r="AE289" t="s" s="2">
@@ -38662,7 +38662,7 @@
         <v>22</v>
       </c>
       <c r="T338" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="U338" t="s" s="2">
         <v>22</v>
@@ -60297,7 +60297,7 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B546" t="s" s="2">
         <v>32</v>
@@ -60400,7 +60400,7 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B547" t="s" s="2">
         <v>81</v>
@@ -60505,7 +60505,7 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B548" t="s" s="2">
         <v>89</v>
@@ -60608,7 +60608,7 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B549" t="s" s="2">
         <v>95</v>
@@ -60713,7 +60713,7 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B550" t="s" s="2">
         <v>101</v>
@@ -60818,7 +60818,7 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B551" t="s" s="2">
         <v>110</v>
@@ -60923,7 +60923,7 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B552" t="s" s="2">
         <v>115</v>
@@ -60972,7 +60972,7 @@
         <v>22</v>
       </c>
       <c r="T552" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="U552" t="s" s="2">
         <v>22</v>
@@ -61028,7 +61028,7 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B553" t="s" s="2">
         <v>123</v>
@@ -61133,7 +61133,7 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B554" t="s" s="2">
         <v>128</v>
@@ -61238,7 +61238,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B555" t="s" s="2">
         <v>134</v>
@@ -61343,7 +61343,7 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B556" t="s" s="2">
         <v>139</v>
@@ -61446,7 +61446,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B557" t="s" s="2">
         <v>144</v>
@@ -61551,7 +61551,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B558" t="s" s="2">
         <v>152</v>
@@ -61658,7 +61658,7 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B559" t="s" s="2">
         <v>158</v>
@@ -61761,7 +61761,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B560" t="s" s="2">
         <v>161</v>
@@ -61864,7 +61864,7 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B561" t="s" s="2">
         <v>164</v>
@@ -61938,7 +61938,7 @@
         <v>22</v>
       </c>
       <c r="AC561" t="s" s="2">
-        <v>526</v>
+        <v>167</v>
       </c>
       <c r="AD561" s="2"/>
       <c r="AE561" t="s" s="2">
@@ -61965,7 +61965,7 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B562" t="s" s="2">
         <v>170</v>
@@ -62068,7 +62068,7 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B563" t="s" s="2">
         <v>171</v>
@@ -62173,7 +62173,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B564" t="s" s="2">
         <v>172</v>
@@ -62280,7 +62280,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B565" t="s" s="2">
         <v>173</v>
@@ -62383,7 +62383,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B566" t="s" s="2">
         <v>176</v>
@@ -62488,7 +62488,7 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B567" t="s" s="2">
         <v>180</v>
@@ -62591,7 +62591,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B568" t="s" s="2">
         <v>184</v>
@@ -62694,7 +62694,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B569" t="s" s="2">
         <v>188</v>
@@ -62797,7 +62797,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B570" t="s" s="2">
         <v>189</v>
@@ -62902,7 +62902,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B571" t="s" s="2">
         <v>190</v>
@@ -63009,7 +63009,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B572" t="s" s="2">
         <v>191</v>
@@ -63114,7 +63114,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B573" t="s" s="2">
         <v>197</v>
@@ -63219,7 +63219,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B574" t="s" s="2">
         <v>202</v>
@@ -63322,7 +63322,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B575" t="s" s="2">
         <v>206</v>
@@ -63425,7 +63425,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B576" t="s" s="2">
         <v>207</v>
@@ -63530,7 +63530,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B577" t="s" s="2">
         <v>208</v>
@@ -63637,7 +63637,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B578" t="s" s="2">
         <v>209</v>
@@ -63740,7 +63740,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B579" t="s" s="2">
         <v>214</v>
@@ -63845,7 +63845,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B580" t="s" s="2">
         <v>218</v>
@@ -63948,7 +63948,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B581" t="s" s="2">
         <v>221</v>
@@ -64051,7 +64051,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B582" t="s" s="2">
         <v>223</v>
@@ -64154,7 +64154,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B583" t="s" s="2">
         <v>226</v>
@@ -64257,7 +64257,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B584" t="s" s="2">
         <v>229</v>
@@ -64360,7 +64360,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B585" t="s" s="2">
         <v>233</v>
@@ -64463,7 +64463,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B586" t="s" s="2">
         <v>234</v>
@@ -64568,7 +64568,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B587" t="s" s="2">
         <v>235</v>
@@ -64675,7 +64675,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B588" t="s" s="2">
         <v>236</v>
@@ -64778,7 +64778,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B589" t="s" s="2">
         <v>239</v>
@@ -64881,7 +64881,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B590" t="s" s="2">
         <v>242</v>
@@ -64986,7 +64986,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B591" t="s" s="2">
         <v>246</v>
@@ -65091,7 +65091,7 @@
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B592" t="s" s="2">
         <v>250</v>
@@ -65196,7 +65196,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>254</v>
@@ -65301,7 +65301,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>256</v>
@@ -65404,7 +65404,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>257</v>
@@ -65509,7 +65509,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>258</v>
@@ -65616,7 +65616,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>259</v>
@@ -65719,7 +65719,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>260</v>
@@ -65824,7 +65824,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>261</v>
@@ -65929,7 +65929,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>266</v>
@@ -66032,7 +66032,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>267</v>
@@ -66135,7 +66135,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>268</v>
@@ -66240,7 +66240,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>269</v>
@@ -66347,7 +66347,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>270</v>
@@ -66452,7 +66452,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>271</v>
@@ -66557,7 +66557,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>272</v>
@@ -66660,7 +66660,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>273</v>
@@ -66763,7 +66763,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>274</v>
@@ -66868,7 +66868,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>275</v>
@@ -66975,7 +66975,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>276</v>
@@ -67078,7 +67078,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>278</v>
@@ -67183,7 +67183,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>279</v>
@@ -67286,7 +67286,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>280</v>
@@ -67389,7 +67389,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>281</v>
@@ -67492,7 +67492,7 @@
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B615" t="s" s="2">
         <v>282</v>
@@ -67595,7 +67595,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B616" t="s" s="2">
         <v>283</v>
@@ -67698,7 +67698,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B617" t="s" s="2">
         <v>284</v>
@@ -67801,7 +67801,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B618" t="s" s="2">
         <v>285</v>
@@ -67906,7 +67906,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B619" t="s" s="2">
         <v>286</v>
@@ -68013,7 +68013,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B620" t="s" s="2">
         <v>287</v>
@@ -68116,7 +68116,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B621" t="s" s="2">
         <v>288</v>
@@ -68219,7 +68219,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B622" t="s" s="2">
         <v>289</v>
@@ -68324,7 +68324,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B623" t="s" s="2">
         <v>290</v>
@@ -68429,7 +68429,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B624" t="s" s="2">
         <v>291</v>
@@ -68534,7 +68534,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B625" t="s" s="2">
         <v>292</v>
@@ -68639,7 +68639,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B626" t="s" s="2">
         <v>294</v>
@@ -68742,7 +68742,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B627" t="s" s="2">
         <v>295</v>
@@ -68847,7 +68847,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B628" t="s" s="2">
         <v>296</v>
@@ -68954,7 +68954,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B629" t="s" s="2">
         <v>297</v>
@@ -69057,7 +69057,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B630" t="s" s="2">
         <v>298</v>
@@ -69162,7 +69162,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B631" t="s" s="2">
         <v>299</v>
@@ -69265,7 +69265,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B632" t="s" s="2">
         <v>304</v>
@@ -69368,7 +69368,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B633" t="s" s="2">
         <v>305</v>
@@ -69471,7 +69471,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B634" t="s" s="2">
         <v>306</v>
@@ -69576,7 +69576,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B635" t="s" s="2">
         <v>307</v>
@@ -69683,7 +69683,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B636" t="s" s="2">
         <v>308</v>
@@ -69788,7 +69788,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B637" t="s" s="2">
         <v>309</v>
@@ -69893,7 +69893,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B638" t="s" s="2">
         <v>310</v>
@@ -69996,7 +69996,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B639" t="s" s="2">
         <v>311</v>
@@ -70099,7 +70099,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B640" t="s" s="2">
         <v>312</v>
@@ -70204,7 +70204,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B641" t="s" s="2">
         <v>313</v>
@@ -70311,7 +70311,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B642" t="s" s="2">
         <v>314</v>
@@ -70414,7 +70414,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B643" t="s" s="2">
         <v>316</v>
@@ -70519,7 +70519,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B644" t="s" s="2">
         <v>317</v>
@@ -70622,7 +70622,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B645" t="s" s="2">
         <v>318</v>
@@ -70725,7 +70725,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B646" t="s" s="2">
         <v>319</v>
@@ -70828,7 +70828,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B647" t="s" s="2">
         <v>320</v>
@@ -70931,7 +70931,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B648" t="s" s="2">
         <v>321</v>
@@ -71034,7 +71034,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B649" t="s" s="2">
         <v>322</v>
@@ -71137,7 +71137,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B650" t="s" s="2">
         <v>323</v>
@@ -71242,7 +71242,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>324</v>
@@ -71349,7 +71349,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B652" t="s" s="2">
         <v>325</v>
@@ -71452,7 +71452,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B653" t="s" s="2">
         <v>326</v>
@@ -71555,7 +71555,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B654" t="s" s="2">
         <v>327</v>
@@ -71660,7 +71660,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B655" t="s" s="2">
         <v>328</v>
@@ -71765,7 +71765,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B656" t="s" s="2">
         <v>329</v>
@@ -71870,7 +71870,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B657" t="s" s="2">
         <v>330</v>
@@ -71975,7 +71975,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B658" t="s" s="2">
         <v>332</v>
@@ -72078,7 +72078,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B659" t="s" s="2">
         <v>333</v>
@@ -72183,7 +72183,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B660" t="s" s="2">
         <v>334</v>
@@ -72290,7 +72290,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B661" t="s" s="2">
         <v>335</v>
@@ -72393,7 +72393,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B662" t="s" s="2">
         <v>336</v>
@@ -72498,7 +72498,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B663" t="s" s="2">
         <v>337</v>
@@ -72601,7 +72601,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B664" t="s" s="2">
         <v>341</v>
@@ -72704,7 +72704,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B665" t="s" s="2">
         <v>342</v>
@@ -72807,7 +72807,7 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B666" t="s" s="2">
         <v>343</v>
@@ -72912,7 +72912,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>344</v>
@@ -73019,7 +73019,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>345</v>
@@ -73124,7 +73124,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>346</v>
@@ -73229,7 +73229,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>347</v>
@@ -73332,7 +73332,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>348</v>
@@ -73435,7 +73435,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>349</v>
@@ -73540,7 +73540,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>350</v>
@@ -73647,7 +73647,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>351</v>
@@ -73750,7 +73750,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>352</v>
@@ -73855,7 +73855,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>353</v>
@@ -73958,7 +73958,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>354</v>
@@ -74061,7 +74061,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>355</v>
@@ -74164,7 +74164,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>356</v>
@@ -74267,7 +74267,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>357</v>
@@ -74370,7 +74370,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>358</v>
@@ -74473,7 +74473,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>359</v>
@@ -74578,7 +74578,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>360</v>
@@ -74685,7 +74685,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>361</v>
@@ -74788,7 +74788,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>362</v>
@@ -74891,7 +74891,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>363</v>
@@ -74996,7 +74996,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>364</v>
@@ -75101,7 +75101,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>365</v>
@@ -75206,7 +75206,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>366</v>
@@ -75311,7 +75311,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>368</v>
@@ -75414,7 +75414,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>369</v>
@@ -75519,7 +75519,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>370</v>
@@ -75626,7 +75626,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>371</v>
@@ -75729,7 +75729,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>372</v>
@@ -75834,7 +75834,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>373</v>
@@ -75937,7 +75937,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>377</v>
@@ -76040,7 +76040,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>378</v>
@@ -76143,7 +76143,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>379</v>
@@ -76248,7 +76248,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>380</v>
@@ -76355,7 +76355,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>381</v>
@@ -76460,7 +76460,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>382</v>
@@ -76565,7 +76565,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>383</v>
@@ -76668,7 +76668,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B703" t="s" s="2">
         <v>384</v>
@@ -76771,7 +76771,7 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B704" t="s" s="2">
         <v>385</v>
@@ -76876,7 +76876,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B705" t="s" s="2">
         <v>386</v>
@@ -76983,7 +76983,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B706" t="s" s="2">
         <v>387</v>
@@ -77086,7 +77086,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B707" t="s" s="2">
         <v>388</v>
@@ -77191,7 +77191,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B708" t="s" s="2">
         <v>389</v>
@@ -77294,7 +77294,7 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B709" t="s" s="2">
         <v>390</v>
@@ -77397,7 +77397,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>391</v>
@@ -77500,7 +77500,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>392</v>
@@ -77603,7 +77603,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>393</v>
@@ -77706,7 +77706,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>394</v>
@@ -77809,7 +77809,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>395</v>
@@ -77914,7 +77914,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>396</v>
@@ -78021,7 +78021,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>397</v>
@@ -78124,7 +78124,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>398</v>
@@ -78227,7 +78227,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>399</v>
@@ -78332,7 +78332,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>400</v>
@@ -78437,7 +78437,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>401</v>
@@ -78542,7 +78542,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>402</v>
@@ -78647,7 +78647,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>404</v>
@@ -78750,7 +78750,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>405</v>
@@ -78855,7 +78855,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>406</v>
@@ -78962,7 +78962,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>407</v>
@@ -79065,7 +79065,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>408</v>
@@ -79170,7 +79170,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>409</v>
@@ -79273,7 +79273,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>413</v>
@@ -79376,7 +79376,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B729" t="s" s="2">
         <v>414</v>
@@ -79479,7 +79479,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B730" t="s" s="2">
         <v>415</v>
@@ -79584,7 +79584,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B731" t="s" s="2">
         <v>416</v>
@@ -79691,7 +79691,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B732" t="s" s="2">
         <v>417</v>
@@ -79796,7 +79796,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B733" t="s" s="2">
         <v>418</v>
@@ -79901,7 +79901,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B734" t="s" s="2">
         <v>419</v>
@@ -80004,7 +80004,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B735" t="s" s="2">
         <v>420</v>
@@ -80107,7 +80107,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B736" t="s" s="2">
         <v>421</v>
@@ -80212,7 +80212,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B737" t="s" s="2">
         <v>422</v>
@@ -80319,7 +80319,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B738" t="s" s="2">
         <v>423</v>
@@ -80422,7 +80422,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B739" t="s" s="2">
         <v>424</v>
@@ -80527,7 +80527,7 @@
     </row>
     <row r="740">
       <c r="A740" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B740" t="s" s="2">
         <v>425</v>
@@ -80630,7 +80630,7 @@
     </row>
     <row r="741">
       <c r="A741" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B741" t="s" s="2">
         <v>426</v>
@@ -80733,7 +80733,7 @@
     </row>
     <row r="742">
       <c r="A742" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B742" t="s" s="2">
         <v>427</v>
@@ -80836,7 +80836,7 @@
     </row>
     <row r="743">
       <c r="A743" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B743" t="s" s="2">
         <v>428</v>
@@ -80939,7 +80939,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B744" t="s" s="2">
         <v>429</v>
@@ -81042,7 +81042,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B745" t="s" s="2">
         <v>430</v>
@@ -81145,7 +81145,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B746" t="s" s="2">
         <v>431</v>
@@ -81250,7 +81250,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B747" t="s" s="2">
         <v>432</v>
@@ -81357,7 +81357,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B748" t="s" s="2">
         <v>433</v>
@@ -81460,7 +81460,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B749" t="s" s="2">
         <v>434</v>
@@ -81563,7 +81563,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B750" t="s" s="2">
         <v>435</v>
@@ -81668,7 +81668,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B751" t="s" s="2">
         <v>436</v>
@@ -81773,7 +81773,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B752" t="s" s="2">
         <v>437</v>
@@ -81878,7 +81878,7 @@
     </row>
     <row r="753">
       <c r="A753" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B753" t="s" s="2">
         <v>438</v>
@@ -81983,7 +81983,7 @@
     </row>
     <row r="754">
       <c r="A754" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B754" t="s" s="2">
         <v>440</v>
@@ -82086,7 +82086,7 @@
     </row>
     <row r="755">
       <c r="A755" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B755" t="s" s="2">
         <v>441</v>
@@ -82191,7 +82191,7 @@
     </row>
     <row r="756">
       <c r="A756" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B756" t="s" s="2">
         <v>442</v>
@@ -82298,7 +82298,7 @@
     </row>
     <row r="757">
       <c r="A757" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B757" t="s" s="2">
         <v>443</v>
@@ -82401,7 +82401,7 @@
     </row>
     <row r="758">
       <c r="A758" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B758" t="s" s="2">
         <v>444</v>
@@ -82506,7 +82506,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B759" t="s" s="2">
         <v>445</v>
@@ -82609,7 +82609,7 @@
     </row>
     <row r="760">
       <c r="A760" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B760" t="s" s="2">
         <v>449</v>
@@ -82712,7 +82712,7 @@
     </row>
     <row r="761">
       <c r="A761" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B761" t="s" s="2">
         <v>450</v>
@@ -82815,7 +82815,7 @@
     </row>
     <row r="762">
       <c r="A762" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B762" t="s" s="2">
         <v>451</v>
@@ -82920,7 +82920,7 @@
     </row>
     <row r="763">
       <c r="A763" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B763" t="s" s="2">
         <v>452</v>
@@ -83027,7 +83027,7 @@
     </row>
     <row r="764">
       <c r="A764" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B764" t="s" s="2">
         <v>453</v>
@@ -83132,7 +83132,7 @@
     </row>
     <row r="765">
       <c r="A765" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B765" t="s" s="2">
         <v>454</v>
@@ -83237,7 +83237,7 @@
     </row>
     <row r="766">
       <c r="A766" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B766" t="s" s="2">
         <v>455</v>
@@ -83340,7 +83340,7 @@
     </row>
     <row r="767">
       <c r="A767" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B767" t="s" s="2">
         <v>456</v>
@@ -83443,7 +83443,7 @@
     </row>
     <row r="768">
       <c r="A768" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B768" t="s" s="2">
         <v>457</v>
@@ -83548,7 +83548,7 @@
     </row>
     <row r="769">
       <c r="A769" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B769" t="s" s="2">
         <v>458</v>
@@ -83655,7 +83655,7 @@
     </row>
     <row r="770">
       <c r="A770" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B770" t="s" s="2">
         <v>459</v>
@@ -83758,7 +83758,7 @@
     </row>
     <row r="771">
       <c r="A771" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B771" t="s" s="2">
         <v>460</v>
@@ -83863,7 +83863,7 @@
     </row>
     <row r="772">
       <c r="A772" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B772" t="s" s="2">
         <v>461</v>
@@ -83966,7 +83966,7 @@
     </row>
     <row r="773">
       <c r="A773" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B773" t="s" s="2">
         <v>462</v>
@@ -84069,7 +84069,7 @@
     </row>
     <row r="774">
       <c r="A774" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B774" t="s" s="2">
         <v>463</v>
@@ -84172,7 +84172,7 @@
     </row>
     <row r="775">
       <c r="A775" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B775" t="s" s="2">
         <v>464</v>
@@ -84275,7 +84275,7 @@
     </row>
     <row r="776">
       <c r="A776" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B776" t="s" s="2">
         <v>465</v>
@@ -84378,7 +84378,7 @@
     </row>
     <row r="777">
       <c r="A777" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B777" t="s" s="2">
         <v>466</v>
@@ -84481,7 +84481,7 @@
     </row>
     <row r="778">
       <c r="A778" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B778" t="s" s="2">
         <v>467</v>
@@ -84586,7 +84586,7 @@
     </row>
     <row r="779">
       <c r="A779" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B779" t="s" s="2">
         <v>468</v>
@@ -84693,7 +84693,7 @@
     </row>
     <row r="780">
       <c r="A780" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B780" t="s" s="2">
         <v>469</v>
@@ -84796,7 +84796,7 @@
     </row>
     <row r="781">
       <c r="A781" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B781" t="s" s="2">
         <v>470</v>
@@ -84899,7 +84899,7 @@
     </row>
     <row r="782">
       <c r="A782" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B782" t="s" s="2">
         <v>471</v>
@@ -85004,7 +85004,7 @@
     </row>
     <row r="783">
       <c r="A783" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B783" t="s" s="2">
         <v>472</v>
@@ -85109,7 +85109,7 @@
     </row>
     <row r="784">
       <c r="A784" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B784" t="s" s="2">
         <v>473</v>
@@ -85214,7 +85214,7 @@
     </row>
     <row r="785">
       <c r="A785" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B785" t="s" s="2">
         <v>474</v>
@@ -85319,7 +85319,7 @@
     </row>
     <row r="786">
       <c r="A786" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B786" t="s" s="2">
         <v>476</v>
@@ -85422,7 +85422,7 @@
     </row>
     <row r="787">
       <c r="A787" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B787" t="s" s="2">
         <v>477</v>
@@ -85527,7 +85527,7 @@
     </row>
     <row r="788">
       <c r="A788" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B788" t="s" s="2">
         <v>478</v>
@@ -85634,7 +85634,7 @@
     </row>
     <row r="789">
       <c r="A789" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B789" t="s" s="2">
         <v>479</v>
@@ -85737,7 +85737,7 @@
     </row>
     <row r="790">
       <c r="A790" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B790" t="s" s="2">
         <v>480</v>
@@ -85842,7 +85842,7 @@
     </row>
     <row r="791">
       <c r="A791" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B791" t="s" s="2">
         <v>481</v>
@@ -85945,7 +85945,7 @@
     </row>
     <row r="792">
       <c r="A792" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B792" t="s" s="2">
         <v>483</v>
@@ -86048,7 +86048,7 @@
     </row>
     <row r="793">
       <c r="A793" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B793" t="s" s="2">
         <v>484</v>
@@ -86151,7 +86151,7 @@
     </row>
     <row r="794">
       <c r="A794" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B794" t="s" s="2">
         <v>485</v>
@@ -86256,7 +86256,7 @@
     </row>
     <row r="795">
       <c r="A795" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B795" t="s" s="2">
         <v>486</v>
@@ -86363,7 +86363,7 @@
     </row>
     <row r="796">
       <c r="A796" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B796" t="s" s="2">
         <v>487</v>
@@ -86468,7 +86468,7 @@
     </row>
     <row r="797">
       <c r="A797" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B797" t="s" s="2">
         <v>488</v>
@@ -86573,7 +86573,7 @@
     </row>
     <row r="798">
       <c r="A798" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B798" t="s" s="2">
         <v>489</v>
@@ -86676,7 +86676,7 @@
     </row>
     <row r="799">
       <c r="A799" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B799" t="s" s="2">
         <v>490</v>
@@ -86779,7 +86779,7 @@
     </row>
     <row r="800">
       <c r="A800" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B800" t="s" s="2">
         <v>491</v>
@@ -86884,7 +86884,7 @@
     </row>
     <row r="801">
       <c r="A801" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B801" t="s" s="2">
         <v>492</v>
@@ -86991,7 +86991,7 @@
     </row>
     <row r="802">
       <c r="A802" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B802" t="s" s="2">
         <v>493</v>
@@ -87094,7 +87094,7 @@
     </row>
     <row r="803">
       <c r="A803" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B803" t="s" s="2">
         <v>494</v>
@@ -87199,7 +87199,7 @@
     </row>
     <row r="804">
       <c r="A804" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B804" t="s" s="2">
         <v>495</v>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="805">
       <c r="A805" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B805" t="s" s="2">
         <v>496</v>
@@ -87405,7 +87405,7 @@
     </row>
     <row r="806">
       <c r="A806" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B806" t="s" s="2">
         <v>497</v>
@@ -87508,7 +87508,7 @@
     </row>
     <row r="807">
       <c r="A807" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B807" t="s" s="2">
         <v>498</v>
@@ -87611,7 +87611,7 @@
     </row>
     <row r="808">
       <c r="A808" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B808" t="s" s="2">
         <v>499</v>
@@ -87714,7 +87714,7 @@
     </row>
     <row r="809">
       <c r="A809" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B809" t="s" s="2">
         <v>500</v>
@@ -87817,7 +87817,7 @@
     </row>
     <row r="810">
       <c r="A810" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B810" t="s" s="2">
         <v>501</v>
@@ -87922,7 +87922,7 @@
     </row>
     <row r="811">
       <c r="A811" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B811" t="s" s="2">
         <v>502</v>
@@ -88029,7 +88029,7 @@
     </row>
     <row r="812">
       <c r="A812" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B812" t="s" s="2">
         <v>503</v>
@@ -88132,7 +88132,7 @@
     </row>
     <row r="813">
       <c r="A813" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B813" t="s" s="2">
         <v>504</v>
@@ -88235,7 +88235,7 @@
     </row>
     <row r="814">
       <c r="A814" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B814" t="s" s="2">
         <v>505</v>
@@ -88340,7 +88340,7 @@
     </row>
     <row r="815">
       <c r="A815" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B815" t="s" s="2">
         <v>506</v>
@@ -88445,7 +88445,7 @@
     </row>
     <row r="816">
       <c r="A816" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B816" t="s" s="2">
         <v>507</v>
@@ -88550,7 +88550,7 @@
     </row>
     <row r="817">
       <c r="A817" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B817" t="s" s="2">
         <v>508</v>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T12:07:37+00:00</t>
+    <t>2024-07-22T08:11:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T08:11:32+00:00</t>
+    <t>2024-07-22T09:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T09:31:05+00:00</t>
+    <t>2024-07-22T10:07:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T10:07:53+00:00</t>
+    <t>2024-07-22T11:30:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T11:30:39+00:00</t>
+    <t>2024-07-22T11:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T11:50:49+00:00</t>
+    <t>2024-08-29T16:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-st/ig/all-profiles.xlsx
+++ b/nr-add-st/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T16:16:51+00:00</t>
+    <t>2024-08-30T08:26:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
